--- a/勤務表template.xlsx
+++ b/勤務表template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu151291\Desktop\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B80D42-C910-421E-83BB-D86211974AFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC18F5-6E04-45B6-84D9-FC67D4E48AD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14678,7 +14678,7 @@
   <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16332,11 +16332,11 @@
       <c r="E34" s="59"/>
       <c r="F34" s="60"/>
       <c r="G34" s="14">
-        <f t="shared" ref="G33:G36" si="34">F34-E34-J34</f>
+        <f t="shared" ref="G34:G36" si="34">F34-E34-J34</f>
         <v>0</v>
       </c>
       <c r="H34" s="15" t="str">
-        <f t="shared" ref="H33:H36" si="35">IF((G34-TIME(8,0,0))&gt;0,(G34-TIME(8,0,0)),"")</f>
+        <f t="shared" ref="H34:H36" si="35">IF((G34-TIME(8,0,0))&gt;0,(G34-TIME(8,0,0)),"")</f>
         <v/>
       </c>
       <c r="I34" s="16"/>
@@ -16377,11 +16377,15 @@
         <f t="shared" si="33"/>
         <v>43951</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="E35" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F35" s="60">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G35" s="14">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="H35" s="15" t="str">
         <f t="shared" si="35"/>
@@ -16390,17 +16394,17 @@
       <c r="I35" s="16"/>
       <c r="J35" s="17">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K35" s="67"/>
       <c r="L35" s="52"/>
       <c r="M35" s="10">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N35" s="10">
         <f t="shared" si="30"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="53">
         <f t="shared" si="10"/>
@@ -16503,7 +16507,7 @@
       <c r="F38" s="81"/>
       <c r="G38" s="85">
         <f>SUMIF($P6:$P36,$J2,G6:G36)</f>
-        <v>6.4166666666666652</v>
+        <v>6.7499999999999982</v>
       </c>
       <c r="H38" s="69">
         <f>SUMIF($P6:$P36,$J2,H6:H36)</f>
